--- a/Calculation_DataTypeMatrix.xlsx
+++ b/Calculation_DataTypeMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hbich\workspace\opc_ua_server\servers\AutomationStudio_CalculationTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AADB0316-AC63-4542-9BF7-1319B1DFE1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4059C58B-7353-4F39-BCF9-BEE74232EFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-130" windowWidth="38620" windowHeight="21220" xr2:uid="{39FC70AD-36E0-4AED-84BC-07AA732F6904}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="36">
   <si>
     <t>Target</t>
   </si>
@@ -101,6 +101,50 @@
   </si>
   <si>
     <t>0 - +127</t>
+  </si>
+  <si>
+    <t>-32768 - + 32767</t>
+  </si>
+  <si>
+    <t>StatusCode Good |
+BadOutOfRange -32768</t>
+  </si>
+  <si>
+    <t>0 - 255</t>
+  </si>
+  <si>
+    <t>0 - + 32767</t>
+  </si>
+  <si>
+    <t>StatusCode Good |
+BadOutOfRange -2147483648</t>
+  </si>
+  <si>
+    <t>-2139095040 - +2139095040</t>
+  </si>
+  <si>
+    <t>-2147483648 - 2147483647</t>
+  </si>
+  <si>
+    <t>0 - +2147483647</t>
+  </si>
+  <si>
+    <t>0 - + 65535</t>
+  </si>
+  <si>
+    <t>0 - + 255</t>
+  </si>
+  <si>
+    <t>-2147483648 - +2147483647</t>
+  </si>
+  <si>
+    <t>OK Value</t>
+  </si>
+  <si>
+    <t>-32768 - +32767</t>
+  </si>
+  <si>
+    <t>128 - +127</t>
   </si>
 </sst>
 </file>
@@ -124,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -141,17 +185,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -466,15 +526,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0E07A7-D6C6-4E17-B09B-4DD1DD515424}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="13" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -642,8 +709,38 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -719,44 +816,314 @@
       <c r="A11" t="s">
         <v>3</v>
       </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Calculation_DataTypeMatrix.xlsx
+++ b/Calculation_DataTypeMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hbich\workspace\opc_ua_server\servers\AutomationStudio_CalculationTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4059C58B-7353-4F39-BCF9-BEE74232EFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155474B0-8457-4161-94DC-06137F22A1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-130" windowWidth="38620" windowHeight="21220" xr2:uid="{39FC70AD-36E0-4AED-84BC-07AA732F6904}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{39FC70AD-36E0-4AED-84BC-07AA732F6904}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="37">
   <si>
     <t>Target</t>
   </si>
@@ -103,16 +103,10 @@
     <t>0 - +127</t>
   </si>
   <si>
-    <t>-32768 - + 32767</t>
-  </si>
-  <si>
     <t>StatusCode Good |
 BadOutOfRange -32768</t>
   </si>
   <si>
-    <t>0 - 255</t>
-  </si>
-  <si>
     <t>0 - + 32767</t>
   </si>
   <si>
@@ -129,12 +123,6 @@
     <t>0 - +2147483647</t>
   </si>
   <si>
-    <t>0 - + 65535</t>
-  </si>
-  <si>
-    <t>0 - + 255</t>
-  </si>
-  <si>
     <t>-2147483648 - +2147483647</t>
   </si>
   <si>
@@ -145,6 +133,21 @@
   </si>
   <si>
     <t>128 - +127</t>
+  </si>
+  <si>
+    <t>0 - +65535</t>
+  </si>
+  <si>
+    <t>0 - +32767</t>
+  </si>
+  <si>
+    <t>0 - +255</t>
+  </si>
+  <si>
+    <t>-2(63) - +2(63)-1</t>
+  </si>
+  <si>
+    <t>0 - +2(63)-1</t>
   </si>
 </sst>
 </file>
@@ -207,11 +210,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -528,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0E07A7-D6C6-4E17-B09B-4DD1DD515424}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,7 +740,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -852,7 +853,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -861,31 +862,31 @@
         <v>17</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -901,28 +902,28 @@
         <v>18</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -965,40 +966,40 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
@@ -1017,90 +1018,186 @@
         <v>18</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="6"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
